--- a/public/doc_xls_export/report_absensi_bulanan.xlsx
+++ b/public/doc_xls_export/report_absensi_bulanan.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c s="10" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>2016/04/18 10:05:32</t>
         </is>
       </c>
     </row>
